--- a/2조 팀프로젝트 설계.xlsx
+++ b/2조 팀프로젝트 설계.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wlstp\Desktop\2조 프로젝트 회의록\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wlstp\Desktop\Undefined\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="1.도메인 설정" sheetId="1" r:id="rId1"/>
@@ -388,6 +388,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -396,36 +426,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -709,7 +709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -724,18 +724,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="4"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -746,186 +746,186 @@
       <c r="R1" s="1"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="8"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="11"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="11"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="14"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="11"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="8"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10" t="s">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="11"/>
+      <c r="F8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="14"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="11"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -961,7 +961,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A12:A13"/>
     </sheetView>
   </sheetViews>
@@ -972,204 +972,204 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="4"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="14"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="8"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="11"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="11"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="11"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="11"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="11"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="11"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="11"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="14"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="11"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="8"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="14"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
